--- a/resultados/vazao_transferencias/vazao_SIM.xlsx
+++ b/resultados/vazao_transferencias/vazao_SIM.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,6 +395,11 @@
           <t>Vazão natural Mensal / Média histórica (%)</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Vazão captada da ETA (m³/s)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -425,6 +430,11 @@
           <t>1,7</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>66,7</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -455,6 +465,11 @@
           <t>0,93</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>68,47</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -485,6 +500,11 @@
           <t>0,84</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>68,45</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -515,6 +535,11 @@
           <t>1,31</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>68,6</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -545,6 +570,11 @@
           <t>0,74</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>67,52</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -575,6 +605,11 @@
           <t>0,55</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>68,36</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -605,6 +640,11 @@
           <t>0,93</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>70,11</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -635,6 +675,11 @@
           <t>0,46</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>68,53</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -665,6 +710,11 @@
           <t>0,55</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>67,84</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -695,6 +745,11 @@
           <t>0,53</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>65,73</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -725,6 +780,11 @@
           <t>0,57</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>69,91</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -755,6 +815,11 @@
           <t>0,95</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>66,22</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -785,6 +850,11 @@
           <t>1,46</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>68,66</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -815,6 +885,11 @@
           <t>0,57</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>70,96</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -845,6 +920,11 @@
           <t>0,91</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>70,19</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -875,6 +955,11 @@
           <t>0,89</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>70,65</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -905,6 +990,11 @@
           <t>0,68</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>67,84</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -935,6 +1025,11 @@
           <t>0,68</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>66,52</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
@@ -965,6 +1060,11 @@
           <t>0,5</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>68,14</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
@@ -995,6 +1095,11 @@
           <t>0,55</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>70,46</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
@@ -1025,6 +1130,11 @@
           <t>0,42</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>70,39</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
@@ -1055,6 +1165,11 @@
           <t>0,57</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>64,86</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
@@ -1085,6 +1200,11 @@
           <t>0,72</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>66,12</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
@@ -1115,6 +1235,11 @@
           <t>0,56</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>66,6</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
@@ -1145,6 +1270,11 @@
           <t>0,9</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>69,59</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
@@ -1175,6 +1305,11 @@
           <t>0,45</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>71,78</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
@@ -1205,6 +1340,11 @@
           <t>0,38</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>69,75</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
@@ -1235,6 +1375,11 @@
           <t>0,51</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>64,08</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
@@ -1265,6 +1410,11 @@
           <t>0,71</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>70,46</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
@@ -1295,6 +1445,11 @@
           <t>1,23</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>70,66</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
@@ -1325,6 +1480,11 @@
           <t>0,96</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>67,86</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
@@ -1355,6 +1515,11 @@
           <t>0,52</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>70,03</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
@@ -1385,6 +1550,11 @@
           <t>0,38</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>70,8</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
@@ -1415,6 +1585,11 @@
           <t>0,46</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>74,21</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
@@ -1445,6 +1620,11 @@
           <t>0,41</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>72,36</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
@@ -1475,6 +1655,11 @@
           <t>0,84</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>63,11</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
@@ -1505,6 +1690,11 @@
           <t>0,72</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>70,75</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
@@ -1535,6 +1725,11 @@
           <t>0,7</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>71,77</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
@@ -1565,6 +1760,11 @@
           <t>0,76</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>67,73</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
@@ -1595,6 +1795,11 @@
           <t>0,69</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>70,89</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
@@ -1625,6 +1830,11 @@
           <t>0,55</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>66,7</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
@@ -1655,6 +1865,11 @@
           <t>0,72</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>70,88</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
@@ -1685,6 +1900,11 @@
           <t>0,92</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>70,33</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
@@ -1715,6 +1935,11 @@
           <t>0,58</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>71,54</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
@@ -1745,6 +1970,11 @@
           <t>0,51</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>66,35</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
@@ -1775,6 +2005,11 @@
           <t>0,7</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>68,29</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
@@ -1805,6 +2040,11 @@
           <t>0,69</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>73,45</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
@@ -1835,6 +2075,11 @@
           <t>0,42</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>68,43</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
@@ -1865,6 +2110,11 @@
           <t>0,33</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>74,17</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
@@ -1895,6 +2145,11 @@
           <t>0,22</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>71,41</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
@@ -1925,6 +2180,11 @@
           <t>0,41</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>66,69</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
@@ -1955,6 +2215,11 @@
           <t>0,47</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>63,6</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
@@ -1985,6 +2250,11 @@
           <t>0,37</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>62,8</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
@@ -2015,6 +2285,11 @@
           <t>0,4</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>61,25</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
@@ -2045,6 +2320,11 @@
           <t>0,34</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>60,87</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
@@ -2075,6 +2355,11 @@
           <t>0,41</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>60,01</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
@@ -2105,6 +2390,11 @@
           <t>0,45</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>60,83</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
@@ -2135,6 +2425,11 @@
           <t>0,22</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>55,87</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
@@ -2165,6 +2460,11 @@
           <t>0,31</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>54,56</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
@@ -2195,6 +2495,11 @@
           <t>0,46</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>54,57</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
@@ -2225,6 +2530,11 @@
           <t>0,28</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>51,73</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
@@ -2255,6 +2565,11 @@
           <t>0,62</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>52,22</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
@@ -2285,6 +2600,11 @@
           <t>0,71</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>51,95</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
@@ -2315,6 +2635,11 @@
           <t>0,41</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>51,57</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
@@ -2345,6 +2670,11 @@
           <t>0,51</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>51,51</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
@@ -2375,6 +2705,11 @@
           <t>0,51</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>51,89</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
@@ -2405,6 +2740,11 @@
           <t>0,57</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>52,23</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
@@ -2435,6 +2775,11 @@
           <t>0,32</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>52,98</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
@@ -2465,6 +2810,11 @@
           <t>0,91</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>52,62</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
@@ -2495,6 +2845,11 @@
           <t>0,55</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>53,93</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
@@ -2525,6 +2880,11 @@
           <t>0,94</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>53,45</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
@@ -2555,6 +2915,11 @@
           <t>0,96</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>55,02</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
@@ -2585,6 +2950,11 @@
           <t>0,87</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>57,53</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
@@ -2615,6 +2985,11 @@
           <t>0,64</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>57,88</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
@@ -2645,6 +3020,11 @@
           <t>0,98</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>61,89</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
@@ -2675,6 +3055,11 @@
           <t>0,38</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>57,64</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
@@ -2705,6 +3090,11 @@
           <t>0,64</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
@@ -2735,6 +3125,11 @@
           <t>1,5</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>57,08</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
@@ -2765,6 +3160,11 @@
           <t>0,56</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>57,52</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
@@ -2795,6 +3195,11 @@
           <t>0,73</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>59,41</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
@@ -2825,6 +3230,11 @@
           <t>0,48</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>60,07</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
@@ -2855,6 +3265,11 @@
           <t>0,64</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>56,97</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
@@ -2885,6 +3300,11 @@
           <t>0,8</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>60,59</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
@@ -2915,6 +3335,11 @@
           <t>0,57</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>61,87</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
@@ -2945,6 +3370,11 @@
           <t>0,94</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>62,41</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
@@ -2975,6 +3405,11 @@
           <t>0,43</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>58,78</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
@@ -3005,6 +3440,11 @@
           <t>0,51</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>61,81</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
@@ -3035,6 +3475,11 @@
           <t>0,6</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>59,63</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
@@ -3065,6 +3510,11 @@
           <t>0,85</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>58,72</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
@@ -3095,6 +3545,11 @@
           <t>0,74</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>60,81</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
@@ -3125,6 +3580,11 @@
           <t>0,48</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>59,58</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
@@ -3155,6 +3615,11 @@
           <t>0,74</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>61,59</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
@@ -3185,6 +3650,11 @@
           <t>0,3</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>61,15</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
@@ -3215,6 +3685,11 @@
           <t>0,45</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>59,57</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
@@ -3245,6 +3720,11 @@
           <t>0,81</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>61,53</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
@@ -3275,6 +3755,11 @@
           <t>0,41</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>58,27</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
@@ -3305,6 +3790,11 @@
           <t>0,67</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>59,42</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
@@ -3335,6 +3825,11 @@
           <t>0,45</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>61,35</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
@@ -3365,6 +3860,11 @@
           <t>0,54</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>61,8</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
@@ -3395,6 +3895,11 @@
           <t>0,74</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>60,86</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
@@ -3425,6 +3930,11 @@
           <t>0,47</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>60,65</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
@@ -3455,6 +3965,11 @@
           <t>0,57</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>61,68</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
@@ -3485,6 +4000,11 @@
           <t>0,46</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>61,09</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
@@ -3515,6 +4035,11 @@
           <t>0,72</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>64,26</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
@@ -3545,6 +4070,11 @@
           <t>0,53</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>61,9</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
@@ -3575,6 +4105,11 @@
           <t>1,12</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>61,35</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
@@ -3605,6 +4140,11 @@
           <t>0,87</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>63,34</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
@@ -3635,6 +4175,11 @@
           <t>0,78</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>58,74</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
@@ -3665,6 +4210,11 @@
           <t>0,65</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>65,05</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
@@ -3695,6 +4245,11 @@
           <t>1,17</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>62,42</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
@@ -3725,6 +4280,11 @@
           <t>1,5</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>65,58</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
@@ -3755,6 +4315,11 @@
           <t>1,15</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>63,24</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
@@ -3785,6 +4350,11 @@
           <t>1,25</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>61,91</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
@@ -3815,6 +4385,11 @@
           <t>1,16</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>65,12</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
@@ -3845,6 +4420,11 @@
           <t>1,28</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>62,07</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
@@ -3875,6 +4455,11 @@
           <t>0,92</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>65,01</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
@@ -3905,6 +4490,11 @@
           <t>0,93</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>63,28</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
@@ -3935,6 +4525,11 @@
           <t>0,55</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>66,58</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
@@ -3965,6 +4560,11 @@
           <t>0,72</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>63,73</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
@@ -3995,6 +4595,11 @@
           <t>0,7</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>61,8</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
@@ -4025,6 +4630,11 @@
           <t>0,88</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>65,86</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
@@ -4055,6 +4665,11 @@
           <t>1,29</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>62,17</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
@@ -4085,6 +4700,11 @@
           <t>0,84</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>64,29</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
@@ -4115,6 +4735,11 @@
           <t>0,54</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>64,59</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
@@ -4145,6 +4770,11 @@
           <t>0,53</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>64,79</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
@@ -4175,6 +4805,11 @@
           <t>0,78</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>62,17</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
@@ -4205,6 +4840,11 @@
           <t>0,6</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>57,8</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
@@ -4235,6 +4875,11 @@
           <t>0,94</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>62,63</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
@@ -4265,6 +4910,11 @@
           <t>0,53</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>63,56</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
@@ -4295,6 +4945,11 @@
           <t>0,49</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>61,13</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
@@ -4325,6 +4980,11 @@
           <t>0,85</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>65,49</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
@@ -4355,6 +5015,11 @@
           <t>0,89</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>63,26</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
@@ -4385,6 +5050,11 @@
           <t>0,78</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>68,19</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
@@ -4415,6 +5085,11 @@
           <t>0,73</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>64,05</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
@@ -4445,6 +5120,11 @@
           <t>0,68</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>64,69</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
@@ -4475,6 +5155,11 @@
           <t>0,64</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>63,47</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
@@ -4505,6 +5190,11 @@
           <t>0,6</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>61,69</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
@@ -4535,6 +5225,11 @@
           <t>0,58</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>59,7</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
@@ -4565,6 +5260,11 @@
           <t>0,57</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>59,83</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
@@ -4595,6 +5295,11 @@
           <t>0,68</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>60,81</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
@@ -4625,6 +5330,11 @@
           <t>0,55</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>61,1</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
@@ -4655,6 +5365,11 @@
           <t>0,91</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>61,94</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
@@ -4685,6 +5400,11 @@
           <t>0,66</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>64,15</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
@@ -4715,6 +5435,11 @@
           <t>0,67</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>58,62</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
@@ -4745,6 +5470,11 @@
           <t>1,07</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>60,86</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
@@ -4775,6 +5505,11 @@
           <t>0,88</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>62,74</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
@@ -4805,6 +5540,11 @@
           <t>0,94</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>62,9</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
@@ -4835,6 +5575,11 @@
           <t>0,87</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>64,12</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
@@ -4865,6 +5610,11 @@
           <t>0,8</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>62,59</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
@@ -4895,6 +5645,11 @@
           <t>0,74</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>62,27</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
@@ -4925,6 +5680,11 @@
           <t>0,56</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>61,83</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
@@ -4955,6 +5715,11 @@
           <t>0,73</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>58,09</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
@@ -4985,6 +5750,11 @@
           <t>0,96</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>58,78</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
@@ -5015,6 +5785,11 @@
           <t>0,78</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>64,14</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
@@ -5045,6 +5820,11 @@
           <t>1,27</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>61,85</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
@@ -5075,6 +5855,11 @@
           <t>1,16</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>62,35</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
@@ -5105,6 +5890,11 @@
           <t>0,94</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>65,61</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
@@ -5135,6 +5925,11 @@
           <t>1,44</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>64,45</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
@@ -5165,6 +5960,11 @@
           <t>1,18</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>66,31</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
@@ -5195,6 +5995,11 @@
           <t>1,15</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>65,95</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
@@ -5225,6 +6030,11 @@
           <t>0,83</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>61,92</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
@@ -5255,6 +6065,11 @@
           <t>0,94</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>64,42</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
@@ -5285,6 +6100,11 @@
           <t>0,79</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>63,84</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
@@ -5315,6 +6135,11 @@
           <t>0,88</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>65,41</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
@@ -5345,6 +6170,11 @@
           <t>0,79</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>65,18</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
@@ -5375,6 +6205,11 @@
           <t>1,85</t>
         </is>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>66,1</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
@@ -5405,6 +6240,11 @@
           <t>1,17</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>66,31</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
@@ -5435,6 +6275,11 @@
           <t>0,64</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>62,94</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2">
@@ -5465,6 +6310,11 @@
           <t>0,96</t>
         </is>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>69,82</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
@@ -5495,6 +6345,11 @@
           <t>0,86</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>70,03</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
@@ -5525,6 +6380,11 @@
           <t>0,8</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>68,32</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
@@ -5555,6 +6415,11 @@
           <t>0,63</t>
         </is>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>69,17</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
@@ -5585,6 +6450,11 @@
           <t>0,63</t>
         </is>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>65,75</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
@@ -5615,6 +6485,11 @@
           <t>0,54</t>
         </is>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>68,22</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
@@ -5645,6 +6520,11 @@
           <t>0,71</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>63,7</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
@@ -5675,6 +6555,11 @@
           <t>0,75</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>68,88</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
@@ -5705,6 +6590,11 @@
           <t>0,54</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>67,97</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
@@ -5735,6 +6625,11 @@
           <t>0,64</t>
         </is>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>68,96</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
@@ -5765,6 +6660,11 @@
           <t>0,83</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>69,97</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
@@ -5795,6 +6695,11 @@
           <t>0,96</t>
         </is>
       </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>66,25</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
@@ -5825,6 +6730,11 @@
           <t>0,69</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
@@ -5855,10 +6765,15 @@
           <t>1,01</t>
         </is>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>73,24</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5867,12 +6782,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>61,45</t>
+          <t>58,07</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>72,08</t>
+          <t>68,75</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5882,7 +6797,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>73,24</t>
         </is>
       </c>
     </row>

--- a/resultados/vazao_transferencias/vazao_SIM.xlsx
+++ b/resultados/vazao_transferencias/vazao_SIM.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,7 +403,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>40209</v>
+        <v>45777</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -412,33 +412,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>95,32</t>
+          <t>61,29</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>285,47</t>
+          <t>130,46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>167,93</t>
+          <t>116,66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>66,7</t>
+          <t>72,62</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>40237</v>
+        <v>45808</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -447,33 +447,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>93,11</t>
+          <t>56,34</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>166,7</t>
+          <t>60,94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>179,28</t>
+          <t>92,18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>68,47</t>
+          <t>72,46</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>40268</v>
+        <v>45838</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -482,33 +482,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>95,15</t>
+          <t>51,6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>135,94</t>
+          <t>57,9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>161,12</t>
+          <t>85,6</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>68,45</t>
+          <t>73,1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>40298</v>
+        <v>40209</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -517,33 +517,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>98,36</t>
+          <t>95,32</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>156,14</t>
+          <t>285,47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>119,04</t>
+          <t>167,93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>68,6</t>
+          <t>66,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>40329</v>
+        <v>40237</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -552,33 +552,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>95,76</t>
+          <t>93,11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70,53</t>
+          <t>166,7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94,79</t>
+          <t>179,28</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>67,52</t>
+          <t>68,47</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>40359</v>
+        <v>40268</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -587,33 +587,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>91,52</t>
+          <t>95,15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>47,51</t>
+          <t>135,94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86,44</t>
+          <t>161,12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>68,36</t>
+          <t>68,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>40390</v>
+        <v>40298</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -622,33 +622,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>89,55</t>
+          <t>98,36</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>67,9</t>
+          <t>156,14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73,12</t>
+          <t>119,04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>70,11</t>
+          <t>68,6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>40421</v>
+        <v>40329</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -657,33 +657,33 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>82,82</t>
+          <t>95,76</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30,14</t>
+          <t>70,53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>65,26</t>
+          <t>94,79</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>68,53</t>
+          <t>67,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>40451</v>
+        <v>40359</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -692,17 +692,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>77,32</t>
+          <t>91,52</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>40,72</t>
+          <t>47,51</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>74,44</t>
+          <t>86,44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -712,13 +712,13 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>67,84</t>
+          <t>68,36</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>40482</v>
+        <v>40390</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -727,33 +727,33 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>72,75</t>
+          <t>89,55</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>47,64</t>
+          <t>67,9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89,22</t>
+          <t>73,12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>65,73</t>
+          <t>70,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>40512</v>
+        <v>40421</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -762,33 +762,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>69,21</t>
+          <t>82,82</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>54,65</t>
+          <t>30,14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>95,47</t>
+          <t>65,26</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>69,91</t>
+          <t>68,53</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>40543</v>
+        <v>40451</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -797,33 +797,33 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>74,36</t>
+          <t>77,32</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>124,23</t>
+          <t>40,72</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>130,84</t>
+          <t>74,44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>66,22</t>
+          <t>67,84</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>40574</v>
+        <v>40482</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -832,33 +832,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>87,97</t>
+          <t>72,75</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>248,87</t>
+          <t>47,64</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>170,56</t>
+          <t>89,22</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>68,66</t>
+          <t>65,73</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>40602</v>
+        <v>40512</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -867,17 +867,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>84,77</t>
+          <t>69,21</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>102,88</t>
+          <t>54,65</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>179,87</t>
+          <t>95,47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -887,13 +887,13 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>70,96</t>
+          <t>69,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>40633</v>
+        <v>40543</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -902,33 +902,33 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>86,72</t>
+          <t>74,36</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>147,7</t>
+          <t>124,23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>161,45</t>
+          <t>130,84</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>70,19</t>
+          <t>66,22</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>40663</v>
+        <v>40574</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -937,33 +937,33 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>89,92</t>
+          <t>87,97</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106,58</t>
+          <t>248,87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>120,22</t>
+          <t>170,56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>70,65</t>
+          <t>68,66</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>40694</v>
+        <v>40602</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -972,33 +972,33 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>88,38</t>
+          <t>84,77</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>64,56</t>
+          <t>102,88</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>179,87</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>67,84</t>
+          <t>70,96</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>40724</v>
+        <v>40633</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1007,33 +1007,33 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>86,19</t>
+          <t>86,72</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>58,45</t>
+          <t>147,7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86,45</t>
+          <t>161,45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>66,52</t>
+          <t>70,19</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>40755</v>
+        <v>40663</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1042,33 +1042,33 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>80,58</t>
+          <t>89,92</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>36,78</t>
+          <t>106,58</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>73,44</t>
+          <t>120,22</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>68,14</t>
+          <t>70,65</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>40786</v>
+        <v>40694</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1077,33 +1077,33 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>74,7</t>
+          <t>88,38</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>36,2</t>
+          <t>64,56</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>65,25</t>
+          <t>95</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>70,46</t>
+          <t>67,84</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>40816</v>
+        <v>40724</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1112,33 +1112,33 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>67,73</t>
+          <t>86,19</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30,93</t>
+          <t>58,45</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>74,38</t>
+          <t>86,45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>70,39</t>
+          <t>66,52</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>40847</v>
+        <v>40755</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1147,33 +1147,33 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>63,74</t>
+          <t>80,58</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>50,63</t>
+          <t>36,78</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89,04</t>
+          <t>73,44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>64,86</t>
+          <t>68,14</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>40877</v>
+        <v>40786</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1182,33 +1182,33 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>62,77</t>
+          <t>74,7</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>68,53</t>
+          <t>36,2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>95,31</t>
+          <t>65,25</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>66,12</t>
+          <t>70,46</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>40908</v>
+        <v>40816</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1217,33 +1217,33 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>62,82</t>
+          <t>67,73</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>73,97</t>
+          <t>30,93</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>131,25</t>
+          <t>74,38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>66,6</t>
+          <t>70,39</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>40939</v>
+        <v>40847</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1252,33 +1252,33 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>74,03</t>
+          <t>63,74</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>154,49</t>
+          <t>50,63</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>172,19</t>
+          <t>89,04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>69,59</t>
+          <t>64,86</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>40968</v>
+        <v>40877</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1287,33 +1287,33 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>73,92</t>
+          <t>62,77</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>81,26</t>
+          <t>68,53</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>179,38</t>
+          <t>95,31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>71,78</t>
+          <t>66,12</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>40999</v>
+        <v>40908</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1322,33 +1322,33 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>71,22</t>
+          <t>62,82</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>61,63</t>
+          <t>73,97</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>161,93</t>
+          <t>131,25</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>69,75</t>
+          <t>66,6</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>41029</v>
+        <v>40939</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1357,33 +1357,33 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>69,06</t>
+          <t>74,03</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>60,94</t>
+          <t>154,49</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>120,54</t>
+          <t>172,19</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>64,08</t>
+          <t>69,59</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>41060</v>
+        <v>40968</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1392,33 +1392,33 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>67,83</t>
+          <t>73,92</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>67,52</t>
+          <t>81,26</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>94,98</t>
+          <t>179,38</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>70,46</t>
+          <t>71,78</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>41090</v>
+        <v>40999</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1427,33 +1427,33 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>71,84</t>
+          <t>71,22</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>106,59</t>
+          <t>61,63</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>86,41</t>
+          <t>161,93</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>70,66</t>
+          <t>69,75</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>41121</v>
+        <v>41029</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1462,33 +1462,33 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>71,32</t>
+          <t>69,06</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>70,3</t>
+          <t>60,94</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>73,34</t>
+          <t>120,54</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>67,86</t>
+          <t>64,08</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>41152</v>
+        <v>41060</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1497,33 +1497,33 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>65,23</t>
+          <t>67,83</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>33,94</t>
+          <t>67,52</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>65,27</t>
+          <t>94,98</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>70,03</t>
+          <t>70,46</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>41182</v>
+        <v>41090</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1532,33 +1532,33 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>57,99</t>
+          <t>71,84</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>28,34</t>
+          <t>106,59</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>74,17</t>
+          <t>86,41</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>70,8</t>
+          <t>70,66</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>41213</v>
+        <v>41121</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1567,33 +1567,33 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>52,12</t>
+          <t>71,32</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>40,74</t>
+          <t>70,3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>88,91</t>
+          <t>73,34</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>74,21</t>
+          <t>67,86</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>41243</v>
+        <v>41152</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1602,33 +1602,33 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>46,57</t>
+          <t>65,23</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>38,97</t>
+          <t>33,94</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>95,28</t>
+          <t>65,27</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>72,36</t>
+          <t>70,03</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>41274</v>
+        <v>41182</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1637,33 +1637,33 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>50,59</t>
+          <t>57,99</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>110,03</t>
+          <t>28,34</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>130,85</t>
+          <t>74,17</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>63,11</t>
+          <t>70,8</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>41305</v>
+        <v>41213</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1672,33 +1672,33 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>56,99</t>
+          <t>52,12</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>124,86</t>
+          <t>40,74</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>172,33</t>
+          <t>88,91</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>70,75</t>
+          <t>74,21</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>41333</v>
+        <v>41243</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1707,33 +1707,33 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>62,77</t>
+          <t>46,57</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>125,25</t>
+          <t>38,97</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>178,51</t>
+          <t>95,28</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>71,77</t>
+          <t>72,36</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>41364</v>
+        <v>41274</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1742,33 +1742,33 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>68,16</t>
+          <t>50,59</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>121,69</t>
+          <t>110,03</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>160,99</t>
+          <t>130,85</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>67,73</t>
+          <t>63,11</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>41394</v>
+        <v>41305</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1777,33 +1777,33 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>68,94</t>
+          <t>56,99</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>83,1</t>
+          <t>124,86</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>120,13</t>
+          <t>172,33</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>70,89</t>
+          <t>70,75</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>41425</v>
+        <v>41333</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1812,33 +1812,33 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>65,6</t>
+          <t>62,77</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>52,37</t>
+          <t>125,25</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>94,96</t>
+          <t>178,51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>66,7</t>
+          <t>71,77</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>41455</v>
+        <v>41364</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1847,33 +1847,33 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>64,29</t>
+          <t>68,16</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>63,05</t>
+          <t>121,69</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>86,98</t>
+          <t>160,99</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>70,88</t>
+          <t>67,73</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>41486</v>
+        <v>41394</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1882,33 +1882,33 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>63,58</t>
+          <t>68,94</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>67,98</t>
+          <t>83,1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>73,58</t>
+          <t>120,13</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>70,33</t>
+          <t>70,89</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>41517</v>
+        <v>41425</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1917,33 +1917,33 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>57,77</t>
+          <t>65,6</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>37,56</t>
+          <t>52,37</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>65,1</t>
+          <t>94,96</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>71,54</t>
+          <t>66,7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>41547</v>
+        <v>41455</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1952,33 +1952,33 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>51,7</t>
+          <t>64,29</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>37,7</t>
+          <t>63,05</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>73,82</t>
+          <t>86,98</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>66,35</t>
+          <t>70,88</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>41578</v>
+        <v>41486</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1987,33 +1987,33 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>48,99</t>
+          <t>63,58</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>61,81</t>
+          <t>67,98</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>88,59</t>
+          <t>73,58</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>68,29</t>
+          <t>70,33</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>41608</v>
+        <v>41517</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2022,33 +2022,33 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>45,88</t>
+          <t>57,77</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>64,96</t>
+          <t>37,56</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>94,78</t>
+          <t>65,1</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>73,45</t>
+          <t>71,54</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>41639</v>
+        <v>41547</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2057,33 +2057,33 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>41,27</t>
+          <t>51,7</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>54,39</t>
+          <t>37,7</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>130,92</t>
+          <t>73,82</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>68,43</t>
+          <t>66,35</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>41670</v>
+        <v>41578</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2092,33 +2092,33 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>38,19</t>
+          <t>48,99</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>56,75</t>
+          <t>61,81</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>172,18</t>
+          <t>88,59</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>74,17</t>
+          <t>68,29</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>41698</v>
+        <v>41608</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2127,33 +2127,33 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>33,4</t>
+          <t>45,88</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>38,8</t>
+          <t>64,96</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>178,26</t>
+          <t>94,78</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>71,41</t>
+          <t>73,45</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>41729</v>
+        <v>41639</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2162,33 +2162,33 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>32,31</t>
+          <t>41,27</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>66,8</t>
+          <t>54,39</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>160,98</t>
+          <t>130,92</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>66,69</t>
+          <t>68,43</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>41759</v>
+        <v>41670</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2197,33 +2197,33 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>30,59</t>
+          <t>38,19</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>56,32</t>
+          <t>56,75</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>120,08</t>
+          <t>172,18</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>63,6</t>
+          <t>74,17</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>41790</v>
+        <v>41698</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2232,33 +2232,33 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>26,26</t>
+          <t>33,4</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>34,92</t>
+          <t>38,8</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>94,72</t>
+          <t>178,26</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>62,8</t>
+          <t>71,41</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>41820</v>
+        <v>41729</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2267,33 +2267,33 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>22,14</t>
+          <t>32,31</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>34,69</t>
+          <t>66,8</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>86,96</t>
+          <t>160,98</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>61,25</t>
+          <t>66,69</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>41851</v>
+        <v>41759</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2302,33 +2302,33 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>16,71</t>
+          <t>30,59</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>25,17</t>
+          <t>56,32</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>73,81</t>
+          <t>120,08</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>60,87</t>
+          <t>63,6</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>41882</v>
+        <v>41790</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2337,33 +2337,33 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>11,62</t>
+          <t>26,26</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>26,42</t>
+          <t>34,92</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>65,03</t>
+          <t>94,72</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>60,01</t>
+          <t>62,8</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>41912</v>
+        <v>41820</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2372,33 +2372,33 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>22,14</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>33,42</t>
+          <t>34,69</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>73,64</t>
+          <t>86,96</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>60,83</t>
+          <t>61,25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>41943</v>
+        <v>41851</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2407,33 +2407,33 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>16,71</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>19,07</t>
+          <t>25,17</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>88,56</t>
+          <t>73,81</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>55,87</t>
+          <t>60,87</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>41973</v>
+        <v>41882</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2442,33 +2442,33 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>11,62</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>29,06</t>
+          <t>26,42</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>94,81</t>
+          <t>65,03</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>54,56</t>
+          <t>60,01</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>42004</v>
+        <v>41912</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2477,33 +2477,33 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>60,28</t>
+          <t>33,42</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>130,36</t>
+          <t>73,64</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>54,57</t>
+          <t>60,83</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>42035</v>
+        <v>41943</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2512,33 +2512,33 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>48,57</t>
+          <t>19,07</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>171,11</t>
+          <t>88,56</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>51,73</t>
+          <t>55,87</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>42063</v>
+        <v>41973</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2547,33 +2547,33 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>109,22</t>
+          <t>29,06</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>177,05</t>
+          <t>94,81</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>52,22</t>
+          <t>54,56</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>42094</v>
+        <v>42004</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2582,33 +2582,33 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>16,16</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>113,49</t>
+          <t>60,28</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>160,23</t>
+          <t>130,36</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>51,95</t>
+          <t>54,57</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>42124</v>
+        <v>42035</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2617,33 +2617,33 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>16,13</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>48,91</t>
+          <t>48,57</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>119,67</t>
+          <t>171,11</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>51,57</t>
+          <t>51,73</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>42155</v>
+        <v>42063</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2652,33 +2652,33 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>15,73</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>48,1</t>
+          <t>109,22</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>94,32</t>
+          <t>177,05</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>51,51</t>
+          <t>52,22</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>42185</v>
+        <v>42094</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2687,33 +2687,33 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>14,87</t>
+          <t>16,16</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>113,49</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>86,63</t>
+          <t>160,23</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>51,89</t>
+          <t>51,95</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>42216</v>
+        <v>42124</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2722,33 +2722,33 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>13,51</t>
+          <t>16,13</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>41,96</t>
+          <t>48,91</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>73,5</t>
+          <t>119,67</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>52,23</t>
+          <t>51,57</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>42247</v>
+        <v>42155</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2757,33 +2757,33 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>15,73</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>21,06</t>
+          <t>48,1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>64,81</t>
+          <t>94,32</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>52,98</t>
+          <t>51,51</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>42277</v>
+        <v>42185</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2792,33 +2792,33 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>14,87</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>67,15</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>73,44</t>
+          <t>86,63</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>52,62</t>
+          <t>51,89</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>42308</v>
+        <v>42216</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2827,33 +2827,33 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>13,51</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>48,43</t>
+          <t>41,96</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>87,94</t>
+          <t>73,5</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>53,93</t>
+          <t>52,23</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>42338</v>
+        <v>42247</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2862,33 +2862,33 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>88,61</t>
+          <t>21,06</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>94,26</t>
+          <t>64,81</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>53,45</t>
+          <t>52,98</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>42369</v>
+        <v>42277</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2897,33 +2897,33 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>22,25</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>124,15</t>
+          <t>67,15</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>129,79</t>
+          <t>73,44</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>55,02</t>
+          <t>52,62</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>42400</v>
+        <v>42308</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2932,33 +2932,33 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>31,94</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>147,61</t>
+          <t>48,43</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>87,94</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>57,53</t>
+          <t>53,93</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>42429</v>
+        <v>42338</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2967,33 +2967,33 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>37,55</t>
+          <t>14,6</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>113,82</t>
+          <t>88,61</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>176,61</t>
+          <t>94,26</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>57,88</t>
+          <t>53,45</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>42460</v>
+        <v>42369</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3002,33 +3002,33 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>47,68</t>
+          <t>22,25</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>157,53</t>
+          <t>124,15</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>160,13</t>
+          <t>129,79</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>61,89</t>
+          <t>55,02</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>42490</v>
+        <v>42400</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3037,33 +3037,33 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>45,26</t>
+          <t>31,94</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>45,39</t>
+          <t>147,61</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>119,14</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>57,64</t>
+          <t>57,53</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>42521</v>
+        <v>42429</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3072,17 +3072,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>45,75</t>
+          <t>37,55</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>59,84</t>
+          <t>113,82</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>94,07</t>
+          <t>176,61</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3092,13 +3092,13 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57,88</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>42551</v>
+        <v>42460</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3107,33 +3107,33 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>54,79</t>
+          <t>47,68</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>129,62</t>
+          <t>157,53</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>86,39</t>
+          <t>160,13</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>57,08</t>
+          <t>61,89</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>42582</v>
+        <v>42490</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3142,33 +3142,33 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>51,98</t>
+          <t>45,26</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>41,09</t>
+          <t>45,39</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>73,42</t>
+          <t>119,14</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>57,52</t>
+          <t>57,64</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>42613</v>
+        <v>42521</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3177,33 +3177,33 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>50,42</t>
+          <t>45,75</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>46,9</t>
+          <t>59,84</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>64,49</t>
+          <t>94,07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>59,41</t>
+          <t>55</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>42643</v>
+        <v>42551</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3212,33 +3212,33 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>47,34</t>
+          <t>54,79</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>35,31</t>
+          <t>129,62</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>73,66</t>
+          <t>86,39</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>60,07</t>
+          <t>57,08</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>42674</v>
+        <v>42582</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3247,33 +3247,33 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>47,42</t>
+          <t>51,98</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>55,94</t>
+          <t>41,09</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>87,68</t>
+          <t>73,42</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>56,97</t>
+          <t>57,52</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>42704</v>
+        <v>42613</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3282,33 +3282,33 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>49,49</t>
+          <t>50,42</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>75,72</t>
+          <t>46,9</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>94,55</t>
+          <t>64,49</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>60,59</t>
+          <t>59,41</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>42735</v>
+        <v>42643</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3317,33 +3317,33 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>50,88</t>
+          <t>47,34</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>74,56</t>
+          <t>35,31</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>130,09</t>
+          <t>73,66</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>61,87</t>
+          <t>60,07</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>42766</v>
+        <v>42674</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3352,33 +3352,33 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>62,25</t>
+          <t>47,42</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>159,82</t>
+          <t>55,94</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>170,21</t>
+          <t>87,68</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>62,41</t>
+          <t>56,97</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>42794</v>
+        <v>42704</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3387,33 +3387,33 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>63,25</t>
+          <t>49,49</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>75,05</t>
+          <t>75,72</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>176,24</t>
+          <t>94,55</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>58,78</t>
+          <t>60,59</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>42825</v>
+        <v>42735</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3422,33 +3422,33 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>65,47</t>
+          <t>50,88</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>81,75</t>
+          <t>74,56</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>160,44</t>
+          <t>130,09</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>61,81</t>
+          <t>61,87</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>42855</v>
+        <v>42766</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3457,33 +3457,33 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>66,33</t>
+          <t>62,25</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>70,9</t>
+          <t>159,82</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>118,5</t>
+          <t>170,21</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>59,63</t>
+          <t>62,41</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>42886</v>
+        <v>42794</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3492,33 +3492,33 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>68,24</t>
+          <t>63,25</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>79,49</t>
+          <t>75,05</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>93,95</t>
+          <t>176,24</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>58,72</t>
+          <t>58,78</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>42916</v>
+        <v>42825</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3527,33 +3527,33 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>68,09</t>
+          <t>65,47</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>64,45</t>
+          <t>81,75</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>87,16</t>
+          <t>160,44</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>60,81</t>
+          <t>61,81</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>42947</v>
+        <v>42855</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3562,33 +3562,33 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>63,54</t>
+          <t>66,33</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>35,41</t>
+          <t>70,9</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>73,23</t>
+          <t>118,5</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>59,58</t>
+          <t>59,63</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>42978</v>
+        <v>42886</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3597,33 +3597,33 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>60,64</t>
+          <t>68,24</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>47,82</t>
+          <t>79,49</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>64,47</t>
+          <t>93,95</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>61,59</t>
+          <t>58,72</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>43008</v>
+        <v>42916</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3632,33 +3632,33 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>53,71</t>
+          <t>68,09</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>21,82</t>
+          <t>64,45</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>73,39</t>
+          <t>87,16</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>61,15</t>
+          <t>60,81</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>43039</v>
+        <v>42947</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3667,33 +3667,33 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>49,98</t>
+          <t>63,54</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>39,4</t>
+          <t>35,41</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>87,59</t>
+          <t>73,23</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>59,57</t>
+          <t>59,58</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>43069</v>
+        <v>42978</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3702,33 +3702,33 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>51,34</t>
+          <t>60,64</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>76,42</t>
+          <t>47,82</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>94,62</t>
+          <t>64,47</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>61,53</t>
+          <t>61,59</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>43100</v>
+        <v>43008</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3737,33 +3737,33 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>49,4</t>
+          <t>53,71</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>52,62</t>
+          <t>21,82</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>129,74</t>
+          <t>73,39</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>58,27</t>
+          <t>61,15</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>43131</v>
+        <v>43039</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3772,33 +3772,33 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>56,94</t>
+          <t>49,98</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>113,5</t>
+          <t>39,4</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>170,5</t>
+          <t>87,59</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>59,42</t>
+          <t>59,57</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>43159</v>
+        <v>43069</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3807,33 +3807,33 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>59,18</t>
+          <t>51,34</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>79,7</t>
+          <t>76,42</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>175,39</t>
+          <t>94,62</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>61,35</t>
+          <t>61,53</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>43190</v>
+        <v>43100</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3842,33 +3842,33 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>62,66</t>
+          <t>49,4</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>86,65</t>
+          <t>52,62</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>159,86</t>
+          <t>129,74</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>61,8</t>
+          <t>58,27</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>43220</v>
+        <v>43131</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3877,33 +3877,33 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>62,06</t>
+          <t>56,94</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>87,5</t>
+          <t>113,5</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>118,26</t>
+          <t>170,5</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>60,86</t>
+          <t>59,42</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>43251</v>
+        <v>43159</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3912,33 +3912,33 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>56,42</t>
+          <t>59,18</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>44,21</t>
+          <t>79,7</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>94,05</t>
+          <t>175,39</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>60,65</t>
+          <t>61,35</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>43281</v>
+        <v>43190</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3947,33 +3947,33 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>52,34</t>
+          <t>62,66</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>50,02</t>
+          <t>86,65</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>87,16</t>
+          <t>159,86</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>61,68</t>
+          <t>61,8</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>43312</v>
+        <v>43220</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3982,33 +3982,33 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>47,08</t>
+          <t>62,06</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>33,77</t>
+          <t>87,5</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>72,98</t>
+          <t>118,26</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>61,09</t>
+          <t>60,86</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>43343</v>
+        <v>43251</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4017,33 +4017,33 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>44,52</t>
+          <t>56,42</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>46,45</t>
+          <t>44,21</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>64,52</t>
+          <t>94,05</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>64,26</t>
+          <t>60,65</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>43373</v>
+        <v>43281</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4052,33 +4052,33 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>40,59</t>
+          <t>52,34</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>38,45</t>
+          <t>50,02</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>72,95</t>
+          <t>87,16</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>61,9</t>
+          <t>61,68</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>43404</v>
+        <v>43312</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4087,33 +4087,33 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>44,73</t>
+          <t>47,08</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>97,52</t>
+          <t>33,77</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>87,23</t>
+          <t>72,98</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>61,35</t>
+          <t>61,09</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>43434</v>
+        <v>43343</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4122,33 +4122,33 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>45,97</t>
+          <t>44,52</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>82,73</t>
+          <t>46,45</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>94,62</t>
+          <t>64,52</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>63,34</t>
+          <t>64,26</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>43465</v>
+        <v>43373</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4157,33 +4157,33 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>48,5</t>
+          <t>40,59</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>100,08</t>
+          <t>38,45</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>129,02</t>
+          <t>72,95</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>58,74</t>
+          <t>61,9</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>43496</v>
+        <v>43404</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -4192,33 +4192,33 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>52,16</t>
+          <t>44,73</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>110,59</t>
+          <t>97,52</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>170,14</t>
+          <t>87,23</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>65,05</t>
+          <t>61,35</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>43524</v>
+        <v>43434</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -4227,33 +4227,33 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>63,59</t>
+          <t>45,97</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>204,27</t>
+          <t>82,73</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>174,56</t>
+          <t>94,62</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>62,42</t>
+          <t>63,34</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>43555</v>
+        <v>43465</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4262,33 +4262,33 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>74,11</t>
+          <t>48,5</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>238,72</t>
+          <t>100,08</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>159,32</t>
+          <t>129,02</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>65,58</t>
+          <t>58,74</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>43585</v>
+        <v>43496</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4297,33 +4297,33 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>76,62</t>
+          <t>52,16</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>136,01</t>
+          <t>110,59</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>117,96</t>
+          <t>170,14</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>63,24</t>
+          <t>65,05</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>43616</v>
+        <v>43524</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4332,33 +4332,33 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>77,19</t>
+          <t>63,59</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>116,59</t>
+          <t>204,27</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>93,5</t>
+          <t>174,56</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>61,91</t>
+          <t>62,42</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>43646</v>
+        <v>43555</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4367,33 +4367,33 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>75,37</t>
+          <t>74,11</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>100,31</t>
+          <t>238,72</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>86,74</t>
+          <t>159,32</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>65,12</t>
+          <t>65,58</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>43677</v>
+        <v>43585</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4402,33 +4402,33 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>74,4</t>
+          <t>76,62</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>93,21</t>
+          <t>136,01</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>72,54</t>
+          <t>117,96</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>62,07</t>
+          <t>63,24</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>43708</v>
+        <v>43616</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4437,33 +4437,33 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>69,04</t>
+          <t>77,19</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>59,02</t>
+          <t>116,59</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>64,31</t>
+          <t>93,5</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>65,01</t>
+          <t>61,91</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>43738</v>
+        <v>43646</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4472,33 +4472,33 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>65,58</t>
+          <t>75,37</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>67,74</t>
+          <t>100,31</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>72,56</t>
+          <t>86,74</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>63,28</t>
+          <t>65,12</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>43769</v>
+        <v>43677</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4507,33 +4507,33 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>58,92</t>
+          <t>74,4</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>47,78</t>
+          <t>93,21</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>87,32</t>
+          <t>72,54</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>66,58</t>
+          <t>62,07</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>43799</v>
+        <v>43708</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4542,33 +4542,33 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>56,07</t>
+          <t>69,04</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>68,17</t>
+          <t>59,02</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>94,5</t>
+          <t>64,31</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>63,73</t>
+          <t>65,01</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>43830</v>
+        <v>43738</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4577,33 +4577,33 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>56,98</t>
+          <t>65,58</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>90,3</t>
+          <t>67,74</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>128,69</t>
+          <t>72,56</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>61,8</t>
+          <t>63,28</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>43861</v>
+        <v>43769</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4612,33 +4612,33 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>63,42</t>
+          <t>58,92</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>148,9</t>
+          <t>47,78</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>169,45</t>
+          <t>87,32</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>65,86</t>
+          <t>66,58</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>43890</v>
+        <v>43799</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4647,33 +4647,33 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>75,12</t>
+          <t>56,07</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>226,46</t>
+          <t>68,17</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>174,89</t>
+          <t>94,5</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>62,17</t>
+          <t>63,73</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>43921</v>
+        <v>43830</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4682,33 +4682,33 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>76,53</t>
+          <t>56,98</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>134,88</t>
+          <t>90,3</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>160,2</t>
+          <t>128,69</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>64,29</t>
+          <t>61,8</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>43951</v>
+        <v>43861</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4717,33 +4717,33 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>72,23</t>
+          <t>63,42</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>63,54</t>
+          <t>148,9</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>118,19</t>
+          <t>169,45</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>64,59</t>
+          <t>65,86</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>43982</v>
+        <v>43890</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4752,33 +4752,33 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>67,61</t>
+          <t>75,12</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>49,76</t>
+          <t>226,46</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>93,8</t>
+          <t>174,89</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>64,79</t>
+          <t>62,17</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>44012</v>
+        <v>43921</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4787,33 +4787,33 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>65,37</t>
+          <t>76,53</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>67,78</t>
+          <t>134,88</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>86,93</t>
+          <t>160,2</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>62,17</t>
+          <t>64,29</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>44043</v>
+        <v>43951</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4822,33 +4822,33 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>59,49</t>
+          <t>72,23</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>43,94</t>
+          <t>63,54</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>72,78</t>
+          <t>118,19</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>57,8</t>
+          <t>64,59</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>44074</v>
+        <v>43982</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4857,33 +4857,33 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>56,39</t>
+          <t>67,61</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>60,55</t>
+          <t>49,76</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>64,27</t>
+          <t>93,8</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>62,63</t>
+          <t>64,79</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>44104</v>
+        <v>44012</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4892,33 +4892,33 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>50,78</t>
+          <t>65,37</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>38,48</t>
+          <t>67,78</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>72,51</t>
+          <t>86,93</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>63,56</t>
+          <t>62,17</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>44135</v>
+        <v>44043</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4927,33 +4927,33 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>45,73</t>
+          <t>59,49</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>42,43</t>
+          <t>43,94</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>86,89</t>
+          <t>72,78</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>61,13</t>
+          <t>57,8</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>44165</v>
+        <v>44074</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4962,33 +4962,33 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>44,3</t>
+          <t>56,39</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>80,5</t>
+          <t>60,55</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>94,2</t>
+          <t>64,27</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>65,49</t>
+          <t>62,63</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>44196</v>
+        <v>44104</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4997,33 +4997,33 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>46,99</t>
+          <t>50,78</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>114,52</t>
+          <t>38,48</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>128,24</t>
+          <t>72,51</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>63,26</t>
+          <t>63,56</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>44227</v>
+        <v>44135</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -5032,33 +5032,33 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>52,51</t>
+          <t>45,73</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>132,65</t>
+          <t>42,43</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>169,22</t>
+          <t>86,89</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>68,19</t>
+          <t>61,13</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>44255</v>
+        <v>44165</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5067,33 +5067,33 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>57,1</t>
+          <t>44,3</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>128,1</t>
+          <t>80,5</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>175,45</t>
+          <t>94,2</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>64,05</t>
+          <t>65,49</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>44286</v>
+        <v>44196</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5102,33 +5102,33 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>59,55</t>
+          <t>46,99</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>108,44</t>
+          <t>114,52</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>159,92</t>
+          <t>128,24</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>64,69</t>
+          <t>63,26</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>44316</v>
+        <v>44227</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5137,33 +5137,33 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>59,14</t>
+          <t>52,51</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>74,86</t>
+          <t>132,65</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>117,57</t>
+          <t>169,22</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>63,47</t>
+          <t>68,19</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>44347</v>
+        <v>44255</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5172,33 +5172,33 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>55,77</t>
+          <t>57,1</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>55,92</t>
+          <t>128,1</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>93,29</t>
+          <t>175,45</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>61,69</t>
+          <t>64,05</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>44377</v>
+        <v>44286</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5207,33 +5207,33 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>52,2</t>
+          <t>59,55</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>49,93</t>
+          <t>108,44</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>86,71</t>
+          <t>159,92</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>59,7</t>
+          <t>64,69</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>44408</v>
+        <v>44316</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5242,33 +5242,33 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>47,53</t>
+          <t>59,14</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>41,25</t>
+          <t>74,86</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>72,48</t>
+          <t>117,57</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>59,83</t>
+          <t>63,47</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>44439</v>
+        <v>44347</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -5277,33 +5277,33 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>43,59</t>
+          <t>55,77</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>43,96</t>
+          <t>55,92</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>64,22</t>
+          <t>93,29</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>60,81</t>
+          <t>61,69</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -5312,33 +5312,33 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>38,27</t>
+          <t>52,2</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>39,81</t>
+          <t>49,93</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>72,15</t>
+          <t>86,71</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>61,1</t>
+          <t>59,7</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>44500</v>
+        <v>44408</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -5347,33 +5347,33 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>38,56</t>
+          <t>47,53</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>78,9</t>
+          <t>41,25</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>86,42</t>
+          <t>72,48</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>61,94</t>
+          <t>59,83</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>44530</v>
+        <v>44439</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5382,33 +5382,33 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>36,83</t>
+          <t>43,59</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>62,44</t>
+          <t>43,96</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>94,06</t>
+          <t>64,22</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>64,15</t>
+          <t>60,81</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>44561</v>
+        <v>44469</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -5417,33 +5417,33 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>38,23</t>
+          <t>38,27</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>86,39</t>
+          <t>39,81</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>128,1</t>
+          <t>72,15</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>58,62</t>
+          <t>61,1</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>44592</v>
+        <v>44500</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -5452,33 +5452,33 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>49,46</t>
+          <t>38,56</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>180,88</t>
+          <t>78,9</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>168,83</t>
+          <t>86,42</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>60,86</t>
+          <t>61,94</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>44620</v>
+        <v>44530</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -5487,33 +5487,33 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>55,74</t>
+          <t>36,83</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>154,74</t>
+          <t>62,44</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>174,96</t>
+          <t>94,06</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>62,74</t>
+          <t>64,15</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5522,33 +5522,33 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>59,45</t>
+          <t>38,23</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>149,75</t>
+          <t>86,39</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>159,37</t>
+          <t>128,1</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>62,9</t>
+          <t>58,62</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>44681</v>
+        <v>44592</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -5557,33 +5557,33 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>59,07</t>
+          <t>49,46</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>101,42</t>
+          <t>180,88</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>117,12</t>
+          <t>168,83</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>64,12</t>
+          <t>60,86</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>44712</v>
+        <v>44620</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5592,33 +5592,33 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>56,79</t>
+          <t>55,74</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>74,74</t>
+          <t>154,74</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>92,9</t>
+          <t>174,96</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>62,59</t>
+          <t>62,74</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>44742</v>
+        <v>44651</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5627,33 +5627,33 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>54,75</t>
+          <t>59,45</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>63,87</t>
+          <t>149,75</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>86,31</t>
+          <t>159,37</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>62,27</t>
+          <t>62,9</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>44773</v>
+        <v>44681</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -5662,33 +5662,33 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>49,57</t>
+          <t>59,07</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>40,45</t>
+          <t>101,42</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>72,15</t>
+          <t>117,12</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>61,83</t>
+          <t>64,12</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>44804</v>
+        <v>44712</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5697,33 +5697,33 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>45,48</t>
+          <t>56,79</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>46,67</t>
+          <t>74,74</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>64,01</t>
+          <t>92,9</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>58,09</t>
+          <t>62,59</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>44834</v>
+        <v>44742</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5732,33 +5732,33 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>44,42</t>
+          <t>54,75</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>69,21</t>
+          <t>63,87</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>71,8</t>
+          <t>86,31</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>58,78</t>
+          <t>62,27</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>44865</v>
+        <v>44773</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5767,33 +5767,33 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>43,36</t>
+          <t>49,57</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>67,76</t>
+          <t>40,45</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>86,33</t>
+          <t>72,15</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>64,14</t>
+          <t>61,83</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>44895</v>
+        <v>44804</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5802,33 +5802,33 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>46,29</t>
+          <t>45,48</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>118,69</t>
+          <t>46,67</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>93,71</t>
+          <t>64,01</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>61,85</t>
+          <t>58,09</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>44926</v>
+        <v>44834</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5837,33 +5837,33 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>44,42</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>147,81</t>
+          <t>69,21</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>127,65</t>
+          <t>71,8</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>62,35</t>
+          <t>58,78</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>44957</v>
+        <v>44865</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5872,33 +5872,33 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>59,31</t>
+          <t>43,36</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>158,79</t>
+          <t>67,76</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>168,94</t>
+          <t>86,33</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>65,61</t>
+          <t>64,14</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>44985</v>
+        <v>44895</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -5907,33 +5907,33 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>73,63</t>
+          <t>46,29</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>250,75</t>
+          <t>118,69</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>174,71</t>
+          <t>93,71</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>64,45</t>
+          <t>61,85</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>45016</v>
+        <v>44926</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5942,33 +5942,33 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>81,18</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>188,66</t>
+          <t>147,81</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>159,24</t>
+          <t>127,65</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>66,31</t>
+          <t>62,35</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>45046</v>
+        <v>44957</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -5977,33 +5977,33 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>84,47</t>
+          <t>59,31</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>133,94</t>
+          <t>158,79</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>116,96</t>
+          <t>168,94</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>65,95</t>
+          <t>65,61</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>45077</v>
+        <v>44985</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -6012,33 +6012,33 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>82,38</t>
+          <t>73,63</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>77,33</t>
+          <t>250,75</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>92,7</t>
+          <t>174,71</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>61,92</t>
+          <t>64,45</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>45107</v>
+        <v>45016</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -6047,33 +6047,33 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>80,44</t>
+          <t>81,18</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>81,01</t>
+          <t>188,66</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>86,06</t>
+          <t>159,24</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>64,42</t>
+          <t>66,31</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>45138</v>
+        <v>45046</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -6082,33 +6082,33 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>74,93</t>
+          <t>84,47</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>56,41</t>
+          <t>133,94</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>71,81</t>
+          <t>116,96</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>63,84</t>
+          <t>65,95</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -6117,33 +6117,33 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>69,61</t>
+          <t>82,38</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>56,18</t>
+          <t>77,33</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>63,83</t>
+          <t>92,7</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>65,41</t>
+          <t>61,92</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>45199</v>
+        <v>45107</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -6152,33 +6152,33 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>64,59</t>
+          <t>80,44</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>56,77</t>
+          <t>81,01</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>71,78</t>
+          <t>86,06</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>65,18</t>
+          <t>64,42</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>45230</v>
+        <v>45138</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -6187,33 +6187,33 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>71,11</t>
+          <t>74,93</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>158,92</t>
+          <t>56,41</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>86,13</t>
+          <t>71,81</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>66,1</t>
+          <t>63,84</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>45260</v>
+        <v>45169</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -6222,33 +6222,33 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>71,01</t>
+          <t>69,61</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>109,82</t>
+          <t>56,18</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>93,98</t>
+          <t>63,83</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>66,31</t>
+          <t>65,41</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>45291</v>
+        <v>45199</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -6257,33 +6257,33 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>67,34</t>
+          <t>64,59</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>81,76</t>
+          <t>56,77</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>127,84</t>
+          <t>71,78</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>62,94</t>
+          <t>65,18</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>45322</v>
+        <v>45230</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -6292,33 +6292,33 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>73,01</t>
+          <t>71,11</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>161,27</t>
+          <t>158,92</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>168,81</t>
+          <t>86,13</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>69,82</t>
+          <t>66,1</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>45351</v>
+        <v>45260</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -6327,33 +6327,33 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>77,42</t>
+          <t>71,01</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>150,37</t>
+          <t>109,82</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>175,45</t>
+          <t>93,98</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>70,03</t>
+          <t>66,31</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>45382</v>
+        <v>45291</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -6362,33 +6362,33 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>80,64</t>
+          <t>67,34</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>127,58</t>
+          <t>81,76</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>159,53</t>
+          <t>127,84</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>68,32</t>
+          <t>62,94</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>45412</v>
+        <v>45322</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -6397,33 +6397,33 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>77,23</t>
+          <t>73,01</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>74,18</t>
+          <t>161,27</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>117,12</t>
+          <t>168,81</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>69,17</t>
+          <t>69,82</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>45443</v>
+        <v>45351</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -6432,33 +6432,33 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>72,14</t>
+          <t>77,42</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>58,73</t>
+          <t>150,37</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>92,54</t>
+          <t>175,45</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>65,75</t>
+          <t>70,03</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>45473</v>
+        <v>45382</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -6467,33 +6467,33 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>66,72</t>
+          <t>80,64</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>46,86</t>
+          <t>127,58</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>86,01</t>
+          <t>159,53</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>68,22</t>
+          <t>68,32</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>45504</v>
+        <v>45412</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -6502,33 +6502,33 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>61,75</t>
+          <t>77,23</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>51,05</t>
+          <t>74,18</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>71,66</t>
+          <t>117,12</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>63,7</t>
+          <t>69,17</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>45535</v>
+        <v>45443</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -6537,33 +6537,33 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>55,66</t>
+          <t>72,14</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>47,73</t>
+          <t>58,73</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>63,76</t>
+          <t>92,54</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>68,88</t>
+          <t>65,75</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>45565</v>
+        <v>45473</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -6572,17 +6572,17 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>48,96</t>
+          <t>66,72</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>38,49</t>
+          <t>46,86</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>71,62</t>
+          <t>86,01</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6592,13 +6592,13 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>67,97</t>
+          <t>68,22</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>45596</v>
+        <v>45504</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -6607,33 +6607,33 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>44,94</t>
+          <t>61,75</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>55,26</t>
+          <t>51,05</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>86,88</t>
+          <t>71,66</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>68,96</t>
+          <t>63,7</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>45626</v>
+        <v>45535</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -6642,33 +6642,33 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>44,1</t>
+          <t>55,66</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>77,73</t>
+          <t>47,73</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>94,14</t>
+          <t>63,76</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>69,97</t>
+          <t>68,88</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>45657</v>
+        <v>45565</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -6677,33 +6677,33 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>49,04</t>
+          <t>48,96</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>122,58</t>
+          <t>38,49</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>127,36</t>
+          <t>71,62</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>66,25</t>
+          <t>67,97</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>45688</v>
+        <v>45596</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -6712,33 +6712,33 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>53,18</t>
+          <t>44,94</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>116,19</t>
+          <t>55,26</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>168,73</t>
+          <t>86,88</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68,96</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -6747,60 +6747,165 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>61,56</t>
+          <t>44,1</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>177,3</t>
+          <t>77,73</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>175,17</t>
+          <t>94,14</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>73,24</t>
+          <t>69,97</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>49,04</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>122,58</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>127,36</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>66,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>53,18</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>116,19</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>168,73</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>61,56</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>177,3</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>175,17</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>73,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
         <v>45747</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
         <is>
           <t>58,07</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>68,75</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>159,17</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>0,43</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>73,24</t>
         </is>

--- a/resultados/vazao_transferencias/vazao_SIM.xlsx
+++ b/resultados/vazao_transferencias/vazao_SIM.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,7 +403,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45777</v>
+        <v>45868</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -412,33 +412,33 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>61,29</t>
+          <t>45,24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>130,46</t>
+          <t>47,03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>116,66</t>
+          <t>71,45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>72,62</t>
+          <t>72,89</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -447,33 +447,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>56,34</t>
+          <t>61,29</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60,94</t>
+          <t>130,46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92,18</t>
+          <t>116,66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>72,46</t>
+          <t>72,62</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -482,33 +482,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>51,6</t>
+          <t>56,34</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>57,9</t>
+          <t>60,94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85,6</t>
+          <t>92,18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>73,1</t>
+          <t>72,46</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>40209</v>
+        <v>45838</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -517,33 +517,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>95,32</t>
+          <t>51,6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>285,47</t>
+          <t>57,9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>167,93</t>
+          <t>85,6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>66,7</t>
+          <t>73,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>40237</v>
+        <v>40209</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -552,33 +552,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>93,11</t>
+          <t>95,32</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>166,7</t>
+          <t>285,47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>179,28</t>
+          <t>167,93</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>68,47</t>
+          <t>66,7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>40268</v>
+        <v>40237</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -587,33 +587,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>95,15</t>
+          <t>93,11</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>135,94</t>
+          <t>166,7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>161,12</t>
+          <t>179,28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>68,45</t>
+          <t>68,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>40298</v>
+        <v>40268</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -622,33 +622,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>98,36</t>
+          <t>95,15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>156,14</t>
+          <t>135,94</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>119,04</t>
+          <t>161,12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>68,6</t>
+          <t>68,45</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>40329</v>
+        <v>40298</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -657,33 +657,33 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>95,76</t>
+          <t>98,36</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>70,53</t>
+          <t>156,14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94,79</t>
+          <t>119,04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>67,52</t>
+          <t>68,6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>40359</v>
+        <v>40329</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -692,33 +692,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>91,52</t>
+          <t>95,76</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>47,51</t>
+          <t>70,53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86,44</t>
+          <t>94,79</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>68,36</t>
+          <t>67,52</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>40390</v>
+        <v>40359</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -727,33 +727,33 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>89,55</t>
+          <t>91,52</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>67,9</t>
+          <t>47,51</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73,12</t>
+          <t>86,44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>70,11</t>
+          <t>68,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>40421</v>
+        <v>40390</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -762,33 +762,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>82,82</t>
+          <t>89,55</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>30,14</t>
+          <t>67,9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>65,26</t>
+          <t>73,12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>68,53</t>
+          <t>70,11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>40451</v>
+        <v>40421</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -797,33 +797,33 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>77,32</t>
+          <t>82,82</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>40,72</t>
+          <t>30,14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>74,44</t>
+          <t>65,26</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>67,84</t>
+          <t>68,53</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>40482</v>
+        <v>40451</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -832,33 +832,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>72,75</t>
+          <t>77,32</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>47,64</t>
+          <t>40,72</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89,22</t>
+          <t>74,44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>65,73</t>
+          <t>67,84</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>40512</v>
+        <v>40482</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -867,33 +867,33 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>69,21</t>
+          <t>72,75</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>54,65</t>
+          <t>47,64</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>95,47</t>
+          <t>89,22</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>69,91</t>
+          <t>65,73</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>40543</v>
+        <v>40512</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -902,33 +902,33 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>74,36</t>
+          <t>69,21</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>124,23</t>
+          <t>54,65</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>130,84</t>
+          <t>95,47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>66,22</t>
+          <t>69,91</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>40574</v>
+        <v>40543</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -937,33 +937,33 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>87,97</t>
+          <t>74,36</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>248,87</t>
+          <t>124,23</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>170,56</t>
+          <t>130,84</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>68,66</t>
+          <t>66,22</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>40602</v>
+        <v>40574</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -972,33 +972,33 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>84,77</t>
+          <t>87,97</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>102,88</t>
+          <t>248,87</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>179,87</t>
+          <t>170,56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>70,96</t>
+          <t>68,66</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>40633</v>
+        <v>40602</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1007,33 +1007,33 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>86,72</t>
+          <t>84,77</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>147,7</t>
+          <t>102,88</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>161,45</t>
+          <t>179,87</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>70,19</t>
+          <t>70,96</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>40663</v>
+        <v>40633</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1042,33 +1042,33 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>89,92</t>
+          <t>86,72</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>106,58</t>
+          <t>147,7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>120,22</t>
+          <t>161,45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>70,65</t>
+          <t>70,19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>40694</v>
+        <v>40663</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1077,33 +1077,33 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>88,38</t>
+          <t>89,92</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>64,56</t>
+          <t>106,58</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>120,22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>67,84</t>
+          <t>70,65</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>40724</v>
+        <v>40694</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1112,17 +1112,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>86,19</t>
+          <t>88,38</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>58,45</t>
+          <t>64,56</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>86,45</t>
+          <t>95</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1132,13 +1132,13 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>66,52</t>
+          <t>67,84</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>40755</v>
+        <v>40724</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1147,33 +1147,33 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>80,58</t>
+          <t>86,19</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36,78</t>
+          <t>58,45</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>73,44</t>
+          <t>86,45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>68,14</t>
+          <t>66,52</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>40786</v>
+        <v>40755</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1182,33 +1182,33 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>74,7</t>
+          <t>80,58</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>36,2</t>
+          <t>36,78</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>65,25</t>
+          <t>73,44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>70,46</t>
+          <t>68,14</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>40816</v>
+        <v>40786</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1217,33 +1217,33 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>67,73</t>
+          <t>74,7</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>30,93</t>
+          <t>36,2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>74,38</t>
+          <t>65,25</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>70,39</t>
+          <t>70,46</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>40847</v>
+        <v>40816</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1252,33 +1252,33 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>63,74</t>
+          <t>67,73</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>50,63</t>
+          <t>30,93</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>89,04</t>
+          <t>74,38</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>64,86</t>
+          <t>70,39</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>40877</v>
+        <v>40847</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1287,33 +1287,33 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>62,77</t>
+          <t>63,74</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>68,53</t>
+          <t>50,63</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>95,31</t>
+          <t>89,04</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>66,12</t>
+          <t>64,86</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>40908</v>
+        <v>40877</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1322,33 +1322,33 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>62,82</t>
+          <t>62,77</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>73,97</t>
+          <t>68,53</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>131,25</t>
+          <t>95,31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>66,6</t>
+          <t>66,12</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>40939</v>
+        <v>40908</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1357,33 +1357,33 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>74,03</t>
+          <t>62,82</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>154,49</t>
+          <t>73,97</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>172,19</t>
+          <t>131,25</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>69,59</t>
+          <t>66,6</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>40968</v>
+        <v>40939</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1392,33 +1392,33 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>73,92</t>
+          <t>74,03</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>81,26</t>
+          <t>154,49</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>179,38</t>
+          <t>172,19</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>71,78</t>
+          <t>69,59</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>40999</v>
+        <v>40968</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1427,33 +1427,33 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>71,22</t>
+          <t>73,92</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>61,63</t>
+          <t>81,26</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>161,93</t>
+          <t>179,38</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>69,75</t>
+          <t>71,78</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>41029</v>
+        <v>40999</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1462,33 +1462,33 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>69,06</t>
+          <t>71,22</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>60,94</t>
+          <t>61,63</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>120,54</t>
+          <t>161,93</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>64,08</t>
+          <t>69,75</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>41060</v>
+        <v>41029</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1497,33 +1497,33 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>67,83</t>
+          <t>69,06</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>67,52</t>
+          <t>60,94</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>94,98</t>
+          <t>120,54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>70,46</t>
+          <t>64,08</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>41090</v>
+        <v>41060</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1532,33 +1532,33 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>71,84</t>
+          <t>67,83</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>106,59</t>
+          <t>67,52</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>86,41</t>
+          <t>94,98</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>70,66</t>
+          <t>70,46</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>41121</v>
+        <v>41090</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1567,33 +1567,33 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>71,32</t>
+          <t>71,84</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>70,3</t>
+          <t>106,59</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>73,34</t>
+          <t>86,41</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>67,86</t>
+          <t>70,66</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>41152</v>
+        <v>41121</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1602,33 +1602,33 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>65,23</t>
+          <t>71,32</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>33,94</t>
+          <t>70,3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>65,27</t>
+          <t>73,34</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>70,03</t>
+          <t>67,86</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>41182</v>
+        <v>41152</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1637,33 +1637,33 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>57,99</t>
+          <t>65,23</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>28,34</t>
+          <t>33,94</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>74,17</t>
+          <t>65,27</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>70,8</t>
+          <t>70,03</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>41213</v>
+        <v>41182</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1672,33 +1672,33 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>52,12</t>
+          <t>57,99</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>40,74</t>
+          <t>28,34</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>88,91</t>
+          <t>74,17</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>74,21</t>
+          <t>70,8</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>41243</v>
+        <v>41213</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1707,33 +1707,33 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>46,57</t>
+          <t>52,12</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>38,97</t>
+          <t>40,74</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>95,28</t>
+          <t>88,91</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>72,36</t>
+          <t>74,21</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>41274</v>
+        <v>41243</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1742,33 +1742,33 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>50,59</t>
+          <t>46,57</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>110,03</t>
+          <t>38,97</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>130,85</t>
+          <t>95,28</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>63,11</t>
+          <t>72,36</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>41305</v>
+        <v>41274</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1777,33 +1777,33 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>56,99</t>
+          <t>50,59</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>124,86</t>
+          <t>110,03</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>172,33</t>
+          <t>130,85</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>70,75</t>
+          <t>63,11</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>41333</v>
+        <v>41305</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1812,33 +1812,33 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>62,77</t>
+          <t>56,99</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>125,25</t>
+          <t>124,86</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>178,51</t>
+          <t>172,33</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>71,77</t>
+          <t>70,75</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>41364</v>
+        <v>41333</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1847,33 +1847,33 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>68,16</t>
+          <t>62,77</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>121,69</t>
+          <t>125,25</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>160,99</t>
+          <t>178,51</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>67,73</t>
+          <t>71,77</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>41394</v>
+        <v>41364</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1882,33 +1882,33 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>68,94</t>
+          <t>68,16</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>83,1</t>
+          <t>121,69</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>120,13</t>
+          <t>160,99</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>70,89</t>
+          <t>67,73</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>41425</v>
+        <v>41394</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1917,33 +1917,33 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>65,6</t>
+          <t>68,94</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>52,37</t>
+          <t>83,1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>94,96</t>
+          <t>120,13</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>66,7</t>
+          <t>70,89</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>41455</v>
+        <v>41425</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1952,33 +1952,33 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>64,29</t>
+          <t>65,6</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>63,05</t>
+          <t>52,37</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>86,98</t>
+          <t>94,96</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>70,88</t>
+          <t>66,7</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>41486</v>
+        <v>41455</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1987,33 +1987,33 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>63,58</t>
+          <t>64,29</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>67,98</t>
+          <t>63,05</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>73,58</t>
+          <t>86,98</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>70,33</t>
+          <t>70,88</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>41517</v>
+        <v>41486</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2022,33 +2022,33 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>57,77</t>
+          <t>63,58</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>37,56</t>
+          <t>67,98</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>65,1</t>
+          <t>73,58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>71,54</t>
+          <t>70,33</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>41547</v>
+        <v>41517</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2057,33 +2057,33 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>51,7</t>
+          <t>57,77</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>37,7</t>
+          <t>37,56</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>73,82</t>
+          <t>65,1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>66,35</t>
+          <t>71,54</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>41578</v>
+        <v>41547</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2092,33 +2092,33 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>48,99</t>
+          <t>51,7</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>61,81</t>
+          <t>37,7</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>88,59</t>
+          <t>73,82</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>68,29</t>
+          <t>66,35</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>41608</v>
+        <v>41578</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2127,33 +2127,33 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>45,88</t>
+          <t>48,99</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>64,96</t>
+          <t>61,81</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>94,78</t>
+          <t>88,59</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>73,45</t>
+          <t>68,29</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>41639</v>
+        <v>41608</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2162,33 +2162,33 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>41,27</t>
+          <t>45,88</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>54,39</t>
+          <t>64,96</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>130,92</t>
+          <t>94,78</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>68,43</t>
+          <t>73,45</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>41670</v>
+        <v>41639</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2197,33 +2197,33 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>38,19</t>
+          <t>41,27</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>56,75</t>
+          <t>54,39</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>172,18</t>
+          <t>130,92</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>74,17</t>
+          <t>68,43</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2232,33 +2232,33 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>33,4</t>
+          <t>38,19</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>38,8</t>
+          <t>56,75</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>178,26</t>
+          <t>172,18</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>71,41</t>
+          <t>74,17</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2267,33 +2267,33 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>32,31</t>
+          <t>33,4</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>66,8</t>
+          <t>38,8</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>160,98</t>
+          <t>178,26</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>66,69</t>
+          <t>71,41</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2302,33 +2302,33 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>30,59</t>
+          <t>32,31</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>56,32</t>
+          <t>66,8</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>120,08</t>
+          <t>160,98</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>63,6</t>
+          <t>66,69</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2337,33 +2337,33 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>26,26</t>
+          <t>30,59</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>34,92</t>
+          <t>56,32</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>94,72</t>
+          <t>120,08</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>62,8</t>
+          <t>63,6</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>41820</v>
+        <v>41790</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2372,33 +2372,33 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>22,14</t>
+          <t>26,26</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>34,69</t>
+          <t>34,92</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>86,96</t>
+          <t>94,72</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>61,25</t>
+          <t>62,8</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>41851</v>
+        <v>41820</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2407,33 +2407,33 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16,71</t>
+          <t>22,14</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>25,17</t>
+          <t>34,69</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>73,81</t>
+          <t>86,96</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>60,87</t>
+          <t>61,25</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2442,33 +2442,33 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>11,62</t>
+          <t>16,71</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>26,42</t>
+          <t>25,17</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>65,03</t>
+          <t>73,81</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>60,01</t>
+          <t>60,87</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2477,33 +2477,33 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>11,62</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>33,42</t>
+          <t>26,42</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>73,64</t>
+          <t>65,03</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>60,83</t>
+          <t>60,01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2512,33 +2512,33 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>19,07</t>
+          <t>33,42</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>88,56</t>
+          <t>73,64</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>55,87</t>
+          <t>60,83</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2547,33 +2547,33 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>29,06</t>
+          <t>19,07</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>94,81</t>
+          <t>88,56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>54,56</t>
+          <t>55,87</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>42004</v>
+        <v>41973</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2582,33 +2582,33 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>60,28</t>
+          <t>29,06</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>130,36</t>
+          <t>94,81</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>54,57</t>
+          <t>54,56</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>42035</v>
+        <v>42004</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2617,33 +2617,33 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>48,57</t>
+          <t>60,28</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>171,11</t>
+          <t>130,36</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>51,73</t>
+          <t>54,57</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>42063</v>
+        <v>42035</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2652,33 +2652,33 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>109,22</t>
+          <t>48,57</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>177,05</t>
+          <t>171,11</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>52,22</t>
+          <t>51,73</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2687,33 +2687,33 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>16,16</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>113,49</t>
+          <t>109,22</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>160,23</t>
+          <t>177,05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>51,95</t>
+          <t>52,22</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>42124</v>
+        <v>42094</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2722,33 +2722,33 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>16,13</t>
+          <t>16,16</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>48,91</t>
+          <t>113,49</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>119,67</t>
+          <t>160,23</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>51,57</t>
+          <t>51,95</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2757,33 +2757,33 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>15,73</t>
+          <t>16,13</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>48,1</t>
+          <t>48,91</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>94,32</t>
+          <t>119,67</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>51,51</t>
+          <t>51,57</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2792,17 +2792,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>14,87</t>
+          <t>15,73</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>48,1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>86,63</t>
+          <t>94,32</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2812,13 +2812,13 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>51,89</t>
+          <t>51,51</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2827,33 +2827,33 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>13,51</t>
+          <t>14,87</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>41,96</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>73,5</t>
+          <t>86,63</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>52,23</t>
+          <t>51,89</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>42247</v>
+        <v>42216</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2862,33 +2862,33 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>13,51</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>21,06</t>
+          <t>41,96</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>64,81</t>
+          <t>73,5</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>52,98</t>
+          <t>52,23</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>42277</v>
+        <v>42247</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2897,33 +2897,33 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>67,15</t>
+          <t>21,06</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>73,44</t>
+          <t>64,81</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>52,62</t>
+          <t>52,98</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>42308</v>
+        <v>42277</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2932,33 +2932,33 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>48,43</t>
+          <t>67,15</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>87,94</t>
+          <t>73,44</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>53,93</t>
+          <t>52,62</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>42338</v>
+        <v>42308</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2967,33 +2967,33 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>88,61</t>
+          <t>48,43</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>94,26</t>
+          <t>87,94</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>53,45</t>
+          <t>53,93</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3002,33 +3002,33 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>22,25</t>
+          <t>14,6</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>124,15</t>
+          <t>88,61</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>129,79</t>
+          <t>94,26</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>55,02</t>
+          <t>53,45</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>42400</v>
+        <v>42369</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3037,33 +3037,33 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>31,94</t>
+          <t>22,25</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>147,61</t>
+          <t>124,15</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>129,79</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>57,53</t>
+          <t>55,02</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>42429</v>
+        <v>42400</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3072,33 +3072,33 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>37,55</t>
+          <t>31,94</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>113,82</t>
+          <t>147,61</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>176,61</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>57,88</t>
+          <t>57,53</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3107,33 +3107,33 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>47,68</t>
+          <t>37,55</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>157,53</t>
+          <t>113,82</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>160,13</t>
+          <t>176,61</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>61,89</t>
+          <t>57,88</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>42490</v>
+        <v>42460</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3142,33 +3142,33 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>45,26</t>
+          <t>47,68</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>45,39</t>
+          <t>157,53</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>119,14</t>
+          <t>160,13</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>57,64</t>
+          <t>61,89</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3177,33 +3177,33 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>45,75</t>
+          <t>45,26</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>59,84</t>
+          <t>45,39</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>94,07</t>
+          <t>119,14</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57,64</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>42551</v>
+        <v>42521</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3212,33 +3212,33 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>54,79</t>
+          <t>45,75</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>129,62</t>
+          <t>59,84</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>86,39</t>
+          <t>94,07</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>57,08</t>
+          <t>55</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>42582</v>
+        <v>42551</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3247,33 +3247,33 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>51,98</t>
+          <t>54,79</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>41,09</t>
+          <t>129,62</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>73,42</t>
+          <t>86,39</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>57,52</t>
+          <t>57,08</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3282,33 +3282,33 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>50,42</t>
+          <t>51,98</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>46,9</t>
+          <t>41,09</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>64,49</t>
+          <t>73,42</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>59,41</t>
+          <t>57,52</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3317,33 +3317,33 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>47,34</t>
+          <t>50,42</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>35,31</t>
+          <t>46,9</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>73,66</t>
+          <t>64,49</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>60,07</t>
+          <t>59,41</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3352,33 +3352,33 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>47,42</t>
+          <t>47,34</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>55,94</t>
+          <t>35,31</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>87,68</t>
+          <t>73,66</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>56,97</t>
+          <t>60,07</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3387,33 +3387,33 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>49,49</t>
+          <t>47,42</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>75,72</t>
+          <t>55,94</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>94,55</t>
+          <t>87,68</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>60,59</t>
+          <t>56,97</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3422,33 +3422,33 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>50,88</t>
+          <t>49,49</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>74,56</t>
+          <t>75,72</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>130,09</t>
+          <t>94,55</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>61,87</t>
+          <t>60,59</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>42766</v>
+        <v>42735</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3457,33 +3457,33 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>62,25</t>
+          <t>50,88</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>159,82</t>
+          <t>74,56</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>170,21</t>
+          <t>130,09</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>62,41</t>
+          <t>61,87</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3492,33 +3492,33 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>63,25</t>
+          <t>62,25</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>75,05</t>
+          <t>159,82</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>176,24</t>
+          <t>170,21</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>58,78</t>
+          <t>62,41</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3527,33 +3527,33 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>65,47</t>
+          <t>63,25</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>81,75</t>
+          <t>75,05</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>160,44</t>
+          <t>176,24</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>61,81</t>
+          <t>58,78</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3562,33 +3562,33 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>66,33</t>
+          <t>65,47</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>70,9</t>
+          <t>81,75</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>118,5</t>
+          <t>160,44</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>59,63</t>
+          <t>61,81</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3597,33 +3597,33 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>68,24</t>
+          <t>66,33</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>79,49</t>
+          <t>70,9</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>93,95</t>
+          <t>118,5</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>58,72</t>
+          <t>59,63</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3632,33 +3632,33 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>68,09</t>
+          <t>68,24</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>64,45</t>
+          <t>79,49</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>87,16</t>
+          <t>93,95</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>60,81</t>
+          <t>58,72</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>42947</v>
+        <v>42916</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3667,33 +3667,33 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>63,54</t>
+          <t>68,09</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>35,41</t>
+          <t>64,45</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>73,23</t>
+          <t>87,16</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>59,58</t>
+          <t>60,81</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3702,33 +3702,33 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>60,64</t>
+          <t>63,54</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>47,82</t>
+          <t>35,41</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>64,47</t>
+          <t>73,23</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>61,59</t>
+          <t>59,58</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3737,33 +3737,33 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>53,71</t>
+          <t>60,64</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>21,82</t>
+          <t>47,82</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>73,39</t>
+          <t>64,47</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>61,15</t>
+          <t>61,59</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3772,33 +3772,33 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>49,98</t>
+          <t>53,71</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>39,4</t>
+          <t>21,82</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>87,59</t>
+          <t>73,39</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>59,57</t>
+          <t>61,15</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>43069</v>
+        <v>43039</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3807,33 +3807,33 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>51,34</t>
+          <t>49,98</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>76,42</t>
+          <t>39,4</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>94,62</t>
+          <t>87,59</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>61,53</t>
+          <t>59,57</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>43100</v>
+        <v>43069</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3842,33 +3842,33 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>49,4</t>
+          <t>51,34</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>52,62</t>
+          <t>76,42</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>129,74</t>
+          <t>94,62</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>58,27</t>
+          <t>61,53</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>43131</v>
+        <v>43100</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3877,33 +3877,33 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>56,94</t>
+          <t>49,4</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>113,5</t>
+          <t>52,62</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>170,5</t>
+          <t>129,74</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>59,42</t>
+          <t>58,27</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3912,33 +3912,33 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>59,18</t>
+          <t>56,94</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>79,7</t>
+          <t>113,5</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>175,39</t>
+          <t>170,5</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>61,35</t>
+          <t>59,42</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3947,33 +3947,33 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>62,66</t>
+          <t>59,18</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>86,65</t>
+          <t>79,7</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>159,86</t>
+          <t>175,39</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>61,8</t>
+          <t>61,35</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3982,33 +3982,33 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>62,06</t>
+          <t>62,66</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>87,5</t>
+          <t>86,65</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>118,26</t>
+          <t>159,86</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>60,86</t>
+          <t>61,8</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>43251</v>
+        <v>43220</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4017,33 +4017,33 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>56,42</t>
+          <t>62,06</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>44,21</t>
+          <t>87,5</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>94,05</t>
+          <t>118,26</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>60,65</t>
+          <t>60,86</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4052,33 +4052,33 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>52,34</t>
+          <t>56,42</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>50,02</t>
+          <t>44,21</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>87,16</t>
+          <t>94,05</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>61,68</t>
+          <t>60,65</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>43312</v>
+        <v>43281</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4087,33 +4087,33 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>47,08</t>
+          <t>52,34</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>33,77</t>
+          <t>50,02</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>72,98</t>
+          <t>87,16</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>61,09</t>
+          <t>61,68</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>43343</v>
+        <v>43312</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4122,33 +4122,33 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>44,52</t>
+          <t>47,08</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>46,45</t>
+          <t>33,77</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>64,52</t>
+          <t>72,98</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>64,26</t>
+          <t>61,09</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>43373</v>
+        <v>43343</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4157,33 +4157,33 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>40,59</t>
+          <t>44,52</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>38,45</t>
+          <t>46,45</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>72,95</t>
+          <t>64,52</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>61,9</t>
+          <t>64,26</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -4192,33 +4192,33 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>44,73</t>
+          <t>40,59</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>97,52</t>
+          <t>38,45</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>87,23</t>
+          <t>72,95</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>61,35</t>
+          <t>61,9</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -4227,33 +4227,33 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>45,97</t>
+          <t>44,73</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>82,73</t>
+          <t>97,52</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>94,62</t>
+          <t>87,23</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>63,34</t>
+          <t>61,35</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>43465</v>
+        <v>43434</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4262,33 +4262,33 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>48,5</t>
+          <t>45,97</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>100,08</t>
+          <t>82,73</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>129,02</t>
+          <t>94,62</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>58,74</t>
+          <t>63,34</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>43496</v>
+        <v>43465</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4297,33 +4297,33 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>52,16</t>
+          <t>48,5</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>110,59</t>
+          <t>100,08</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>170,14</t>
+          <t>129,02</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>65,05</t>
+          <t>58,74</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4332,33 +4332,33 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>63,59</t>
+          <t>52,16</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>204,27</t>
+          <t>110,59</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>174,56</t>
+          <t>170,14</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>62,42</t>
+          <t>65,05</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4367,33 +4367,33 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>74,11</t>
+          <t>63,59</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>238,72</t>
+          <t>204,27</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>159,32</t>
+          <t>174,56</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>65,58</t>
+          <t>62,42</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4402,33 +4402,33 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>76,62</t>
+          <t>74,11</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>136,01</t>
+          <t>238,72</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>117,96</t>
+          <t>159,32</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>63,24</t>
+          <t>65,58</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4437,33 +4437,33 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>77,19</t>
+          <t>76,62</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>116,59</t>
+          <t>136,01</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>93,5</t>
+          <t>117,96</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>61,91</t>
+          <t>63,24</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4472,33 +4472,33 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>75,37</t>
+          <t>77,19</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>100,31</t>
+          <t>116,59</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>86,74</t>
+          <t>93,5</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>65,12</t>
+          <t>61,91</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>43677</v>
+        <v>43646</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4507,33 +4507,33 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>74,4</t>
+          <t>75,37</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>93,21</t>
+          <t>100,31</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>72,54</t>
+          <t>86,74</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>62,07</t>
+          <t>65,12</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4542,33 +4542,33 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>69,04</t>
+          <t>74,4</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>59,02</t>
+          <t>93,21</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>64,31</t>
+          <t>72,54</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>65,01</t>
+          <t>62,07</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>43738</v>
+        <v>43708</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4577,33 +4577,33 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>65,58</t>
+          <t>69,04</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>67,74</t>
+          <t>59,02</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>72,56</t>
+          <t>64,31</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>63,28</t>
+          <t>65,01</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>43769</v>
+        <v>43738</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4612,33 +4612,33 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>58,92</t>
+          <t>65,58</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>47,78</t>
+          <t>67,74</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>87,32</t>
+          <t>72,56</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>66,58</t>
+          <t>63,28</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4647,33 +4647,33 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>56,07</t>
+          <t>58,92</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>68,17</t>
+          <t>47,78</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>94,5</t>
+          <t>87,32</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>63,73</t>
+          <t>66,58</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>43830</v>
+        <v>43799</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4682,33 +4682,33 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>56,98</t>
+          <t>56,07</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>90,3</t>
+          <t>68,17</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>128,69</t>
+          <t>94,5</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>61,8</t>
+          <t>63,73</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>43861</v>
+        <v>43830</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4717,33 +4717,33 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>63,42</t>
+          <t>56,98</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>148,9</t>
+          <t>90,3</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>169,45</t>
+          <t>128,69</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>65,86</t>
+          <t>61,8</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>43890</v>
+        <v>43861</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4752,33 +4752,33 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>75,12</t>
+          <t>63,42</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>226,46</t>
+          <t>148,9</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>174,89</t>
+          <t>169,45</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>62,17</t>
+          <t>65,86</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4787,33 +4787,33 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>76,53</t>
+          <t>75,12</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>134,88</t>
+          <t>226,46</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>160,2</t>
+          <t>174,89</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>64,29</t>
+          <t>62,17</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4822,33 +4822,33 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>72,23</t>
+          <t>76,53</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>63,54</t>
+          <t>134,88</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>118,19</t>
+          <t>160,2</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>64,59</t>
+          <t>64,29</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4857,33 +4857,33 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>67,61</t>
+          <t>72,23</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>49,76</t>
+          <t>63,54</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>93,8</t>
+          <t>118,19</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>64,79</t>
+          <t>64,59</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4892,33 +4892,33 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>65,37</t>
+          <t>67,61</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>67,78</t>
+          <t>49,76</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>86,93</t>
+          <t>93,8</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>62,17</t>
+          <t>64,79</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4927,33 +4927,33 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>59,49</t>
+          <t>65,37</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>43,94</t>
+          <t>67,78</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>72,78</t>
+          <t>86,93</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>57,8</t>
+          <t>62,17</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4962,33 +4962,33 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>56,39</t>
+          <t>59,49</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>60,55</t>
+          <t>43,94</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>64,27</t>
+          <t>72,78</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>62,63</t>
+          <t>57,8</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4997,33 +4997,33 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>50,78</t>
+          <t>56,39</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>38,48</t>
+          <t>60,55</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>72,51</t>
+          <t>64,27</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>63,56</t>
+          <t>62,63</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -5032,33 +5032,33 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>45,73</t>
+          <t>50,78</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>42,43</t>
+          <t>38,48</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>86,89</t>
+          <t>72,51</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>61,13</t>
+          <t>63,56</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5067,33 +5067,33 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>44,3</t>
+          <t>45,73</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>80,5</t>
+          <t>42,43</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>94,2</t>
+          <t>86,89</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>65,49</t>
+          <t>61,13</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5102,33 +5102,33 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>46,99</t>
+          <t>44,3</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>114,52</t>
+          <t>80,5</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>128,24</t>
+          <t>94,2</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>63,26</t>
+          <t>65,49</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>44227</v>
+        <v>44196</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5137,33 +5137,33 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>52,51</t>
+          <t>46,99</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>132,65</t>
+          <t>114,52</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>169,22</t>
+          <t>128,24</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>68,19</t>
+          <t>63,26</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>44255</v>
+        <v>44227</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5172,33 +5172,33 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>57,1</t>
+          <t>52,51</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>128,1</t>
+          <t>132,65</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>175,45</t>
+          <t>169,22</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>64,05</t>
+          <t>68,19</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>44286</v>
+        <v>44255</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5207,33 +5207,33 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>59,55</t>
+          <t>57,1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>108,44</t>
+          <t>128,1</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>159,92</t>
+          <t>175,45</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>64,69</t>
+          <t>64,05</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>44316</v>
+        <v>44286</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5242,33 +5242,33 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>59,14</t>
+          <t>59,55</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>74,86</t>
+          <t>108,44</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>117,57</t>
+          <t>159,92</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>63,47</t>
+          <t>64,69</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>44347</v>
+        <v>44316</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -5277,33 +5277,33 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>55,77</t>
+          <t>59,14</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>55,92</t>
+          <t>74,86</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>93,29</t>
+          <t>117,57</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>61,69</t>
+          <t>63,47</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>44377</v>
+        <v>44347</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -5312,33 +5312,33 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>52,2</t>
+          <t>55,77</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>49,93</t>
+          <t>55,92</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>86,71</t>
+          <t>93,29</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>59,7</t>
+          <t>61,69</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>44408</v>
+        <v>44377</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -5347,33 +5347,33 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>47,53</t>
+          <t>52,2</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>41,25</t>
+          <t>49,93</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>72,48</t>
+          <t>86,71</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>59,83</t>
+          <t>59,7</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>44439</v>
+        <v>44408</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5382,33 +5382,33 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>43,59</t>
+          <t>47,53</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>43,96</t>
+          <t>41,25</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>64,22</t>
+          <t>72,48</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>60,81</t>
+          <t>59,83</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>44469</v>
+        <v>44439</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -5417,33 +5417,33 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>38,27</t>
+          <t>43,59</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>39,81</t>
+          <t>43,96</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>72,15</t>
+          <t>64,22</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>61,1</t>
+          <t>60,81</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>44500</v>
+        <v>44469</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -5452,33 +5452,33 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>38,56</t>
+          <t>38,27</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>78,9</t>
+          <t>39,81</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>86,42</t>
+          <t>72,15</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>61,94</t>
+          <t>61,1</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>44530</v>
+        <v>44500</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -5487,33 +5487,33 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>36,83</t>
+          <t>38,56</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>62,44</t>
+          <t>78,9</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>94,06</t>
+          <t>86,42</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>64,15</t>
+          <t>61,94</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <v>44561</v>
+        <v>44530</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5522,33 +5522,33 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>38,23</t>
+          <t>36,83</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>86,39</t>
+          <t>62,44</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>128,1</t>
+          <t>94,06</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>58,62</t>
+          <t>64,15</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>44592</v>
+        <v>44561</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -5557,33 +5557,33 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>49,46</t>
+          <t>38,23</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>180,88</t>
+          <t>86,39</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>168,83</t>
+          <t>128,1</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>60,86</t>
+          <t>58,62</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>44620</v>
+        <v>44592</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5592,33 +5592,33 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>55,74</t>
+          <t>49,46</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>154,74</t>
+          <t>180,88</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>174,96</t>
+          <t>168,83</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>62,74</t>
+          <t>60,86</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>44651</v>
+        <v>44620</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5627,33 +5627,33 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>59,45</t>
+          <t>55,74</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>149,75</t>
+          <t>154,74</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>159,37</t>
+          <t>174,96</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>62,9</t>
+          <t>62,74</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>44681</v>
+        <v>44651</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -5662,33 +5662,33 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>59,07</t>
+          <t>59,45</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>101,42</t>
+          <t>149,75</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>117,12</t>
+          <t>159,37</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>64,12</t>
+          <t>62,9</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>44712</v>
+        <v>44681</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5697,33 +5697,33 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>56,79</t>
+          <t>59,07</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>74,74</t>
+          <t>101,42</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>92,9</t>
+          <t>117,12</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>62,59</t>
+          <t>64,12</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>44742</v>
+        <v>44712</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5732,33 +5732,33 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>54,75</t>
+          <t>56,79</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>63,87</t>
+          <t>74,74</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>86,31</t>
+          <t>92,9</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>62,27</t>
+          <t>62,59</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>44773</v>
+        <v>44742</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5767,33 +5767,33 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>49,57</t>
+          <t>54,75</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>40,45</t>
+          <t>63,87</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>72,15</t>
+          <t>86,31</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>61,83</t>
+          <t>62,27</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>44804</v>
+        <v>44773</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5802,33 +5802,33 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>45,48</t>
+          <t>49,57</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>46,67</t>
+          <t>40,45</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>64,01</t>
+          <t>72,15</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>58,09</t>
+          <t>61,83</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>44834</v>
+        <v>44804</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5837,33 +5837,33 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>44,42</t>
+          <t>45,48</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>69,21</t>
+          <t>46,67</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>71,8</t>
+          <t>64,01</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>58,78</t>
+          <t>58,09</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>44865</v>
+        <v>44834</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5872,33 +5872,33 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>43,36</t>
+          <t>44,42</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>67,76</t>
+          <t>69,21</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>86,33</t>
+          <t>71,8</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>64,14</t>
+          <t>58,78</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>44895</v>
+        <v>44865</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -5907,33 +5907,33 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>46,29</t>
+          <t>43,36</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>118,69</t>
+          <t>67,76</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>93,71</t>
+          <t>86,33</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>61,85</t>
+          <t>64,14</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>44926</v>
+        <v>44895</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5942,33 +5942,33 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>46,29</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>147,81</t>
+          <t>118,69</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>127,65</t>
+          <t>93,71</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>62,35</t>
+          <t>61,85</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>44957</v>
+        <v>44926</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -5977,33 +5977,33 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>59,31</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>158,79</t>
+          <t>147,81</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>168,94</t>
+          <t>127,65</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>65,61</t>
+          <t>62,35</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -6012,33 +6012,33 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>73,63</t>
+          <t>59,31</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>250,75</t>
+          <t>158,79</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>174,71</t>
+          <t>168,94</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>64,45</t>
+          <t>65,61</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -6047,33 +6047,33 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>81,18</t>
+          <t>73,63</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>188,66</t>
+          <t>250,75</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>159,24</t>
+          <t>174,71</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>66,31</t>
+          <t>64,45</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -6082,33 +6082,33 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>84,47</t>
+          <t>81,18</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>133,94</t>
+          <t>188,66</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>116,96</t>
+          <t>159,24</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>65,95</t>
+          <t>66,31</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -6117,33 +6117,33 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>82,38</t>
+          <t>84,47</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>77,33</t>
+          <t>133,94</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>92,7</t>
+          <t>116,96</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>61,92</t>
+          <t>65,95</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -6152,33 +6152,33 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>80,44</t>
+          <t>82,38</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>81,01</t>
+          <t>77,33</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>86,06</t>
+          <t>92,7</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>64,42</t>
+          <t>61,92</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -6187,33 +6187,33 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>74,93</t>
+          <t>80,44</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>56,41</t>
+          <t>81,01</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>71,81</t>
+          <t>86,06</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>63,84</t>
+          <t>64,42</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -6222,33 +6222,33 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>69,61</t>
+          <t>74,93</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>56,18</t>
+          <t>56,41</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>63,83</t>
+          <t>71,81</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>65,41</t>
+          <t>63,84</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -6257,33 +6257,33 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>64,59</t>
+          <t>69,61</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>56,77</t>
+          <t>56,18</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>71,78</t>
+          <t>63,83</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>65,18</t>
+          <t>65,41</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -6292,33 +6292,33 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>71,11</t>
+          <t>64,59</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>158,92</t>
+          <t>56,77</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>86,13</t>
+          <t>71,78</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>66,1</t>
+          <t>65,18</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -6327,33 +6327,33 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>71,01</t>
+          <t>71,11</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>109,82</t>
+          <t>158,92</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>93,98</t>
+          <t>86,13</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>66,31</t>
+          <t>66,1</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -6362,33 +6362,33 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>67,34</t>
+          <t>71,01</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>81,76</t>
+          <t>109,82</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>127,84</t>
+          <t>93,98</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>62,94</t>
+          <t>66,31</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -6397,33 +6397,33 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>73,01</t>
+          <t>67,34</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>161,27</t>
+          <t>81,76</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>168,81</t>
+          <t>127,84</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>69,82</t>
+          <t>62,94</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -6432,33 +6432,33 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>77,42</t>
+          <t>73,01</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>150,37</t>
+          <t>161,27</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>175,45</t>
+          <t>168,81</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>70,03</t>
+          <t>69,82</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -6467,33 +6467,33 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>80,64</t>
+          <t>77,42</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>127,58</t>
+          <t>150,37</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>159,53</t>
+          <t>175,45</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>68,32</t>
+          <t>70,03</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -6502,33 +6502,33 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>77,23</t>
+          <t>80,64</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>74,18</t>
+          <t>127,58</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>117,12</t>
+          <t>159,53</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>69,17</t>
+          <t>68,32</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -6537,17 +6537,17 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>72,14</t>
+          <t>77,23</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>58,73</t>
+          <t>74,18</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>92,54</t>
+          <t>117,12</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6557,13 +6557,13 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>65,75</t>
+          <t>69,17</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -6572,33 +6572,33 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>66,72</t>
+          <t>72,14</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>46,86</t>
+          <t>58,73</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>86,01</t>
+          <t>92,54</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>68,22</t>
+          <t>65,75</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -6607,33 +6607,33 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>61,75</t>
+          <t>66,72</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>51,05</t>
+          <t>46,86</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>71,66</t>
+          <t>86,01</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>63,7</t>
+          <t>68,22</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -6642,33 +6642,33 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>55,66</t>
+          <t>61,75</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>47,73</t>
+          <t>51,05</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>63,76</t>
+          <t>71,66</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>68,88</t>
+          <t>63,7</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -6677,33 +6677,33 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>48,96</t>
+          <t>55,66</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>38,49</t>
+          <t>47,73</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>71,62</t>
+          <t>63,76</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>67,97</t>
+          <t>68,88</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -6712,33 +6712,33 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>44,94</t>
+          <t>48,96</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>55,26</t>
+          <t>38,49</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>86,88</t>
+          <t>71,62</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>68,96</t>
+          <t>67,97</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -6747,33 +6747,33 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>44,1</t>
+          <t>44,94</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>77,73</t>
+          <t>55,26</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>94,14</t>
+          <t>86,88</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>69,97</t>
+          <t>68,96</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -6782,33 +6782,33 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>49,04</t>
+          <t>44,1</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>122,58</t>
+          <t>77,73</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>127,36</t>
+          <t>94,14</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>66,25</t>
+          <t>69,97</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -6817,33 +6817,33 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>53,18</t>
+          <t>49,04</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>116,19</t>
+          <t>122,58</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>168,73</t>
+          <t>127,36</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>66,25</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -6852,60 +6852,95 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>61,56</t>
+          <t>53,18</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>177,3</t>
+          <t>116,19</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>175,17</t>
+          <t>168,73</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>73,24</t>
+          <t>72</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>61,56</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>177,3</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>175,17</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>73,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
         <v>45747</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
         <is>
           <t>58,07</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>68,75</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>159,17</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>0,43</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>73,24</t>
         </is>
